--- a/ICR.xlsx
+++ b/ICR.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="190">
   <si>
     <t>NO</t>
   </si>
@@ -577,13 +577,10 @@
     <t>140</t>
   </si>
   <si>
-    <t>C:/ICR/uploads/2016062815533901.tif</t>
+    <t>C:/ICR/uploads/2016062717374106.tif</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1259,346 +1256,346 @@
       <c r="AC3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BA3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BD3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BE3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BF3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BG3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BH3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BI3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BK3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BL3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BM3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BN3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BO3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BP3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BR3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BS3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BT3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BU3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BV3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BW3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="BX3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="BY3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="BZ3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CA3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CB3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CC3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="CD3" t="s">
+      <c r="CD3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="CE3" t="s">
+      <c r="CE3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="CF3" t="s">
+      <c r="CF3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="CG3" t="s">
+      <c r="CG3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="CH3" t="s">
+      <c r="CH3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="CI3" t="s">
+      <c r="CI3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="CJ3" t="s">
+      <c r="CJ3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="CK3" t="s">
+      <c r="CK3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="CL3" t="s">
+      <c r="CL3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="CM3" t="s">
+      <c r="CM3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="CN3" t="s">
+      <c r="CN3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="CO3" t="s">
+      <c r="CO3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="CP3" t="s">
+      <c r="CP3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="CQ3" t="s">
+      <c r="CQ3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="CR3" t="s">
+      <c r="CR3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="CS3" t="s">
+      <c r="CS3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="CT3" t="s">
+      <c r="CT3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="CU3" t="s">
+      <c r="CU3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="CV3" t="s">
+      <c r="CV3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="CW3" t="s">
+      <c r="CW3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="CX3" t="s">
+      <c r="CX3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="CY3" t="s">
+      <c r="CY3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="CZ3" t="s">
+      <c r="CZ3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="DA3" t="s">
+      <c r="DA3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="DB3" t="s">
+      <c r="DB3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="DC3" t="s">
+      <c r="DC3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="DD3" t="s">
+      <c r="DD3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="DE3" t="s">
+      <c r="DE3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="DF3" t="s">
+      <c r="DF3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="DG3" t="s">
+      <c r="DG3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="DH3" t="s">
+      <c r="DH3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="DI3" t="s">
+      <c r="DI3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="DJ3" t="s">
+      <c r="DJ3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="DK3" t="s">
+      <c r="DK3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="DL3" t="s">
+      <c r="DL3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="DM3" t="s">
+      <c r="DM3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="DN3" t="s">
+      <c r="DN3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="DO3" t="s">
+      <c r="DO3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="DP3" t="s">
+      <c r="DP3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="DQ3" t="s">
+      <c r="DQ3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="DR3" t="s">
+      <c r="DR3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="DS3" t="s">
+      <c r="DS3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="DT3" t="s">
+      <c r="DT3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="DU3" t="s">
+      <c r="DU3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="DV3" t="s">
+      <c r="DV3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="DW3" t="s">
+      <c r="DW3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="DX3" t="s">
+      <c r="DX3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="DY3" t="s">
+      <c r="DY3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="DZ3" t="s">
+      <c r="DZ3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="EA3" t="s">
+      <c r="EA3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="EB3" t="s">
+      <c r="EB3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="EC3" t="s">
+      <c r="EC3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="ED3" t="s">
+      <c r="ED3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="EE3" t="s">
+      <c r="EE3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="EF3" t="s">
+      <c r="EF3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="EG3" t="s">
+      <c r="EG3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="EH3" t="s">
+      <c r="EH3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="EI3" t="s">
+      <c r="EI3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="EJ3" t="s">
+      <c r="EJ3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="EK3" t="s">
+      <c r="EK3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="EL3" t="s">
+      <c r="EL3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="EM3" t="s">
+      <c r="EM3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1606,428 +1603,428 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AK4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AL4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AP4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AR4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AT4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AV4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AW4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AX4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AY4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BA4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BB4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BC4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BD4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BE4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BF4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BG4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BH4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BI4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BJ4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BK4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BL4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BM4" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BN4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BO4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BP4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BQ4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BR4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BS4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BT4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BU4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BV4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="BW4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="BX4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="BY4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="BZ4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="CA4" t="s">
+      <c r="CA4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CB4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="CC4" t="s">
+      <c r="CC4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="CD4" t="s">
+      <c r="CD4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="CE4" t="s">
+      <c r="CE4" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="CF4" t="s">
+      <c r="CF4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="CG4" t="s">
+      <c r="CG4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="CH4" t="s">
+      <c r="CH4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="CI4" t="s">
+      <c r="CI4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="CJ4" t="s">
+      <c r="CJ4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="CK4" t="s">
+      <c r="CK4" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="CL4" t="s">
+      <c r="CL4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="CM4" t="s">
+      <c r="CM4" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="CN4" t="s">
+      <c r="CN4" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="CO4" t="s">
+      <c r="CO4" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="CP4" t="s">
+      <c r="CP4" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="CQ4" t="s">
+      <c r="CQ4" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="CR4" t="s">
+      <c r="CR4" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="CS4" t="s">
+      <c r="CS4" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="CT4" t="s">
+      <c r="CT4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="CU4" t="s">
+      <c r="CU4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="CV4" t="s">
+      <c r="CV4" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="CW4" t="s">
+      <c r="CW4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="CX4" t="s">
+      <c r="CX4" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="CY4" t="s">
+      <c r="CY4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="CZ4" t="s">
+      <c r="CZ4" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="DA4" t="s">
+      <c r="DA4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="DB4" t="s">
+      <c r="DB4" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="DC4" t="s">
+      <c r="DC4" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="DD4" t="s">
+      <c r="DD4" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="DE4" t="s">
+      <c r="DE4" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="DF4" t="s">
+      <c r="DF4" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="DG4" t="s">
+      <c r="DG4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="DH4" t="s">
+      <c r="DH4" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="DI4" t="s">
+      <c r="DI4" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="DJ4" t="s">
+      <c r="DJ4" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="DK4" t="s">
+      <c r="DK4" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="DL4" t="s">
+      <c r="DL4" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="DM4" t="s">
+      <c r="DM4" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="DN4" t="s">
+      <c r="DN4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="DO4" t="s">
+      <c r="DO4" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="DP4" t="s">
+      <c r="DP4" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="DQ4" t="s">
+      <c r="DQ4" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="DR4" t="s">
+      <c r="DR4" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="DS4" t="s">
+      <c r="DS4" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="DT4" t="s">
+      <c r="DT4" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="DU4" t="s">
+      <c r="DU4" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="DV4" t="s">
+      <c r="DV4" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="DW4" t="s">
+      <c r="DW4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="DX4" t="s">
+      <c r="DX4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="DY4" t="s">
+      <c r="DY4" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="DZ4" t="s">
+      <c r="DZ4" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="EA4" t="s">
+      <c r="EA4" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="EB4" t="s">
+      <c r="EB4" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="EC4" t="s">
+      <c r="EC4" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="ED4" t="s">
+      <c r="ED4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="EE4" t="s">
+      <c r="EE4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="EF4" t="s">
+      <c r="EF4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="EG4" t="s">
+      <c r="EG4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="EH4" t="s">
+      <c r="EH4" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="EI4" t="s">
+      <c r="EI4" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="EJ4" t="s">
+      <c r="EJ4" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="EK4" t="s">
+      <c r="EK4" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="EL4" t="s">
+      <c r="EL4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="EM4" t="s">
+      <c r="EM4" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2036,12 +2033,6 @@
       </c>
       <c r="C5" t="s">
         <v>189</v>
-      </c>
-      <c r="D5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
